--- a/src/main/java/HRM/Orange/TestData/HrmNewData.xlsx
+++ b/src/main/java/HRM/Orange/TestData/HrmNewData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse-workspace\Orange\src\main\java\HRM\Orange\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sr464\git\OrangeHRM\src\main\java\HRM\Orange\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37275E64-A592-4355-9460-383EAACD46DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B22DFBB-E2B3-409A-A480-4EBD9E202132}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>Admin</t>
   </si>
@@ -136,12 +136,6 @@
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>Date1</t>
-  </si>
-  <si>
-    <t>2021-Oct-20</t>
   </si>
   <si>
     <t>Bereavement leave</t>
@@ -496,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D418F23D-5C1E-4D3B-BC55-D744A6526C5B}">
   <dimension ref="A2:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -585,26 +579,20 @@
       <c r="D8" t="s">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="9" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>33</v>
       </c>
     </row>
